--- a/Testing Manager.xlsx
+++ b/Testing Manager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Associations\2024 - Alberta Tech Alliance Association\2024 - Testing Manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\2024-10-ATAA-Forge\scouting-xtreme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544C716-EE72-4E59-8AD0-FCBC019BD1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6684D234-47AF-40A1-B33D-195E57E60CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="172" windowWidth="22170" windowHeight="13036" activeTab="3" xr2:uid="{02701ECD-E265-41D5-A2A7-3CC6CA32D865}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="1" xr2:uid="{02701ECD-E265-41D5-A2A7-3CC6CA32D865}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Runs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Test Run Name</t>
   </si>
@@ -71,15 +71,6 @@
     <t>Initial run of suite 1</t>
   </si>
   <si>
-    <t>Story table and roadmap</t>
-  </si>
-  <si>
-    <t>Create a story, assign a sprint and epic.  Check table and visualization.</t>
-  </si>
-  <si>
-    <t>The table should contain the data and the story roadmap visualization should chart the sprint.</t>
-  </si>
-  <si>
     <t>As expected</t>
   </si>
   <si>
@@ -153,6 +144,90 @@
   </si>
   <si>
     <t>StepNumber</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Log in as admin, using the correct password (XTREME2008)</t>
+  </si>
+  <si>
+    <t>The admin functions should be enabled</t>
+  </si>
+  <si>
+    <t>Log in as admin, using an incorrect password (QWERTY)</t>
+  </si>
+  <si>
+    <t>The admin functions should not be enabled</t>
+  </si>
+  <si>
+    <t>Log in as admin, then revert to user account</t>
+  </si>
+  <si>
+    <t>The admin functions should be enabled and then disabled</t>
+  </si>
+  <si>
+    <t>Add a data entry</t>
+  </si>
+  <si>
+    <t>Pit data, Use default values</t>
+  </si>
+  <si>
+    <t>Pit data, Adjust drive method to tank drive</t>
+  </si>
+  <si>
+    <t>Pit data, Adjust team number to 2</t>
+  </si>
+  <si>
+    <t>Pit data, Add notes</t>
+  </si>
+  <si>
+    <t>Match data, use default values</t>
+  </si>
+  <si>
+    <t>Match data, increment round number</t>
+  </si>
+  <si>
+    <t>Match data, increment team number</t>
+  </si>
+  <si>
+    <t>Match data, adjust drive method</t>
+  </si>
+  <si>
+    <t>Match data, adjust present radio button</t>
+  </si>
+  <si>
+    <t>Default values</t>
+  </si>
+  <si>
+    <t>Select a specific team</t>
+  </si>
+  <si>
+    <t>Download data</t>
+  </si>
+  <si>
+    <t>Import data</t>
+  </si>
+  <si>
+    <t>View data, Pit data</t>
+  </si>
+  <si>
+    <t>View data, Match data</t>
+  </si>
+  <si>
+    <t>Admin functions</t>
+  </si>
+  <si>
+    <t>Data comparison</t>
+  </si>
+  <si>
+    <t>Visual analysis</t>
+  </si>
+  <si>
+    <t>Edit items</t>
+  </si>
+  <si>
+    <t>Edit data</t>
   </si>
 </sst>
 </file>
@@ -250,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -265,20 +340,65 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -326,7 +446,6 @@
           <bgColor rgb="FFC0E6F5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -351,7 +470,150 @@
           <bgColor rgb="FFC0E6F5"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -379,271 +641,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -663,198 +660,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF156082"/>
           <bgColor rgb="FF156082"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -904,356 +709,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC0E6F5"/>
           <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6F5"/>
-          <bgColor rgb="FFC0E6F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF156082"/>
-          <bgColor rgb="FF156082"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1459,6 +914,56 @@
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6F5"/>
+          <bgColor rgb="FFC0E6F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF156082"/>
+          <bgColor rgb="FF156082"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1473,106 +978,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78A63428-6C3C-46C5-A61A-15626693600A}" name="tbl_TestRuns" displayName="tbl_TestRuns" ref="A2:I3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78A63428-6C3C-46C5-A61A-15626693600A}" name="tbl_TestRuns" displayName="tbl_TestRuns" ref="A2:I3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:I3" xr:uid="{78A63428-6C3C-46C5-A61A-15626693600A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA7CB384-680B-4877-BA82-1F36A12DB984}" name="Test Run Name" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{BD50A0D8-B920-469C-8A5B-9AA7EA262A68}" name="Date time" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{0F0221B4-73BF-49BC-8798-07072DDE77D4}" name="Test Case ID" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{27C13374-A270-409F-9C3E-BFDEA31A6DBE}" name="Test Case Suite" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{AA7CB384-680B-4877-BA82-1F36A12DB984}" name="Test Run Name" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{BD50A0D8-B920-469C-8A5B-9AA7EA262A68}" name="Date time" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{0F0221B4-73BF-49BC-8798-07072DDE77D4}" name="Test Case ID" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{27C13374-A270-409F-9C3E-BFDEA31A6DBE}" name="Test Case Suite" dataDxfId="31">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Test Suite Name],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{771752DD-BE7C-4163-94D1-6403B3B448FA}" name="Test Case Brief Description" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{771752DD-BE7C-4163-94D1-6403B3B448FA}" name="Test Case Brief Description" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F584E000-EA4F-468D-BB03-7917331524D0}" name="Test Case Expectation" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{F584E000-EA4F-468D-BB03-7917331524D0}" name="Test Case Expectation" dataDxfId="29">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Expectation],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{717FDDB2-27A1-4C15-AD78-C589A0A16EE8}" name="Test Case Outcome" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{A9AEB8CC-DB49-4388-A0ED-51ED6D8AB79F}" name="Test Case Grade" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{3683402D-B818-4328-80D8-E7A92F9CC52F}" name="Notes" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{717FDDB2-27A1-4C15-AD78-C589A0A16EE8}" name="Test Case Outcome" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{A9AEB8CC-DB49-4388-A0ED-51ED6D8AB79F}" name="Test Case Grade" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{3683402D-B818-4328-80D8-E7A92F9CC52F}" name="Notes" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}" name="tbl_TestCases" displayName="tbl_TestCases" ref="A2:M3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
-  <autoFilter ref="A2:M3" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}" name="tbl_TestCases" displayName="tbl_TestCases" ref="A2:M25" totalsRowShown="0" headerRowDxfId="25" dataDxfId="0" dataCellStyle="Normal">
+  <autoFilter ref="A2:M25" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{27574F06-5BA9-4E63-97C7-825783688D46}" name="Test Case ID" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{B526EB36-9DB5-49C2-8DA1-334D20B647A3}" name="Test Suite ID" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{ED5D7682-7E0B-4088-9CEB-04199327A651}" name="Test Suite Name" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{27574F06-5BA9-4E63-97C7-825783688D46}" name="Test Case ID" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B526EB36-9DB5-49C2-8DA1-334D20B647A3}" name="Test Suite ID" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{ED5D7682-7E0B-4088-9CEB-04199327A651}" name="Test Suite Name" dataDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{264D8F34-B394-4503-BE76-AED9935ABFB6}" name="Brief description" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{FF5D68C7-F0C5-43FD-B3C6-0FD89A4C0BF0}" name="Expectation" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AC820220-D268-4E52-AA4D-B6EB4A405E79}" name="Related steps (Count)" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{264D8F34-B394-4503-BE76-AED9935ABFB6}" name="Brief description" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{FF5D68C7-F0C5-43FD-B3C6-0FD89A4C0BF0}" name="Expectation" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{AC820220-D268-4E52-AA4D-B6EB4A405E79}" name="Related steps (Count)" dataDxfId="8" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B73A8C2C-FDED-498D-9AE0-78ACB38485F6}" name="Steps passing (Count)" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{B73A8C2C-FDED-498D-9AE0-78ACB38485F6}" name="Steps passing (Count)" dataDxfId="7" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4955DF23-818F-4B58-9ECE-732AC5472191}" name="Steps failing (Count)" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{4955DF23-818F-4B58-9ECE-732AC5472191}" name="Steps failing (Count)" dataDxfId="6" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B8A6487D-B1AD-4036-A6F9-8446B575FA71}" name="Steps without grades (Count)" dataDxfId="30">
+    <tableColumn id="9" xr3:uid="{B8A6487D-B1AD-4036-A6F9-8446B575FA71}" name="Steps without grades (Count)" dataDxfId="5" dataCellStyle="Normal">
       <calculatedColumnFormula>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AED18D94-50D3-4BF4-A6A3-650067C35BCE}" name="Grade from steps (%)" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{AED18D94-50D3-4BF4-A6A3-650067C35BCE}" name="Grade from steps (%)" dataDxfId="4" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{710606B9-4D57-4EFC-A361-E7DB90F278AF}" name="Test Case Outcome" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{250EFB62-2850-48CE-AB17-75B4E454A4E2}" name="Test Case Grade" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{B6ECD6C7-48A9-4711-BB31-B5F8F17049F7}" name="Notes" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{710606B9-4D57-4EFC-A361-E7DB90F278AF}" name="Test Case Outcome" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{250EFB62-2850-48CE-AB17-75B4E454A4E2}" name="Test Case Grade" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{B6ECD6C7-48A9-4711-BB31-B5F8F17049F7}" name="Notes" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}" name="tbl_TestSuites" displayName="tbl_TestSuites" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A1:J2" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}" name="tbl_TestSuites" displayName="tbl_TestSuites" ref="A1:J6" totalsRowShown="0" headerRowDxfId="24" dataCellStyle="Normal">
+  <autoFilter ref="A1:J6" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{14E89959-557D-4658-8F3A-7444B6EEF92A}" name="Test Suite ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{21F5CB11-7F47-40E1-A08B-90D70389C914}" name="Test Suite Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{BD56B160-5DDE-4A3E-B7F1-075873C5F9D5}" name="Child Tests (Count)" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{14E89959-557D-4658-8F3A-7444B6EEF92A}" name="Test Suite ID" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{21F5CB11-7F47-40E1-A08B-90D70389C914}" name="Test Suite Name" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{BD56B160-5DDE-4A3E-B7F1-075873C5F9D5}" name="Child Tests (Count)" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057B5FA4-6C46-4D43-8CA0-2F97F13028A7}" name="Tests passing (Count)" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{057B5FA4-6C46-4D43-8CA0-2F97F13028A7}" name="Tests passing (Count)" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC0C3036-5B77-49B1-9D04-48ED8957617F}" name="Tests failing (Count)" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{AC0C3036-5B77-49B1-9D04-48ED8957617F}" name="Tests failing (Count)" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{205A6B86-2C98-46BB-85C2-060E97349669}" name="Tests without grades (Count)" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{205A6B86-2C98-46BB-85C2-060E97349669}" name="Tests without grades (Count)" dataCellStyle="Normal">
       <calculatedColumnFormula>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9E22481D-4ACB-4DD3-86ED-DF00F6EDC645}" name="Test suite grade (%)" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{9E22481D-4ACB-4DD3-86ED-DF00F6EDC645}" name="Test suite grade (%)" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9B3B8B6F-C5EA-48F6-B927-5D4B71B6395D}" name="Test Suite Outcome" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{6A1FE05B-3639-41CC-8CB7-D6CF8DCA9E64}" name="Test Suite Grade" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{25BED9F5-C52A-4764-963F-897613D59E95}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9B3B8B6F-C5EA-48F6-B927-5D4B71B6395D}" name="Test Suite Outcome" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{6A1FE05B-3639-41CC-8CB7-D6CF8DCA9E64}" name="Test Suite Grade" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{25BED9F5-C52A-4764-963F-897613D59E95}" name="Notes" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1DEFB3F-1A84-4CF1-B599-CE552F4838F2}" name="tbl_Steps" displayName="tbl_Steps" ref="A1:H2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1DEFB3F-1A84-4CF1-B599-CE552F4838F2}" name="tbl_Steps" displayName="tbl_Steps" ref="A1:H2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:H2" xr:uid="{A1DEFB3F-1A84-4CF1-B599-CE552F4838F2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE30A35A-EC33-45F8-A7EC-D05C9E512010}" name="Step ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7F599C0B-FF8B-4845-A26A-18410EC79CEE}" name="Test Case ID" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{42F16808-158C-4A0C-8CE0-59B9933B315C}" name="Test Case Name" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{EE30A35A-EC33-45F8-A7EC-D05C9E512010}" name="Step ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7F599C0B-FF8B-4845-A26A-18410EC79CEE}" name="Test Case ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{42F16808-158C-4A0C-8CE0-59B9933B315C}" name="Test Case Name" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1B97AFF4-DE6E-4A47-B4CB-B313355EC426}" name="StepNumber" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{437B7515-2D12-4FA9-AFFC-18B889C631E1}" name="Description" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{39C5E142-90EB-4218-8FB4-A1DAD3D2E4F3}" name="Expectation" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{DF63C4A4-5D9A-4BF7-91EB-92F3A21A4F7F}" name="Outcome" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{70045985-E9D4-440B-89A3-BAD48A0CCC79}" name="Grade" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{1B97AFF4-DE6E-4A47-B4CB-B313355EC426}" name="StepNumber" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{437B7515-2D12-4FA9-AFFC-18B889C631E1}" name="Description" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{39C5E142-90EB-4218-8FB4-A1DAD3D2E4F3}" name="Expectation" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{DF63C4A4-5D9A-4BF7-91EB-92F3A21A4F7F}" name="Outcome" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{70045985-E9D4-440B-89A3-BAD48A0CCC79}" name="Grade" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1898,7 +1403,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1915,7 +1420,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>45633.604262847221</v>
+        <v>45633.705548148151</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.45">
@@ -1959,24 +1464,24 @@
       </c>
       <c r="D3" s="3" t="str">
         <f>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Test Suite Name],"")</f>
-        <v>Story table and roadmap</v>
+        <v>Security</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description],"")</f>
-        <v>Create a story, assign a sprint and epic.  Check table and visualization.</v>
+        <v>Log in as admin, using the correct password (XTREME2008)</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>_xlfn.XLOOKUP(tbl_TestRuns[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Expectation],"")</f>
-        <v>The table should contain the data and the story roadmap visualization should chart the sprint.</v>
+        <v>The admin functions should be enabled</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F5C402-97F3-45C7-87D5-D390AFC3D58D}">
-  <dimension ref="A2:M3"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2014,31 +1519,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
@@ -2050,46 +1555,908 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="10" t="str">
         <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
-        <v>Story table and roadmap</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>Security</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Security</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Security</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Add a data entry</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H14" s="12">
         <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I14" s="12">
         <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="str">
         <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+        <v/>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Pit data</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Pit data</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Pit data</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Pit data</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Match data</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Match data</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>View data, Match data</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Admin functions</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Admin functions</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Admin functions</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="str">
+        <f>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</f>
+        <v>Admin functions</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <f>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <f>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12" t="str">
+        <f>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,16 +2468,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD46223-A2C3-411D-BC9D-9F20E442B7B7}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.46484375" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.46484375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
@@ -2121,67 +2488,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
         <f>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2">
         <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2">
         <f>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <f>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</f>
         <v>0</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</f>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</f>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="11">
+        <f>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
+        <f>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="11">
+        <f>COUNTIF(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]])</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f>COUNTIFS(tbl_TestCases[Test Suite ID],tbl_TestSuites[[#This Row],[Test Suite ID]],tbl_TestCases[Test Case Grade], "FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <f>tbl_TestSuites[[#This Row],[Child Tests (Count)]]-(tbl_TestSuites[[#This Row],[Tests passing (Count)]]+tbl_TestSuites[[#This Row],[Tests failing (Count)]])</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
+        <f>IFERROR(tbl_TestSuites[[#This Row],[Tests passing (Count)]]/tbl_TestSuites[[#This Row],[Child Tests (Count)]], "")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27539A-71A8-46AA-AE48-2B75AF98E22A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2208,49 +2690,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="str">
+        <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
+        <v/>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="str">
-        <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
-        <v>Create a story, assign a sprint and epic.  Check table and visualization.</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing Manager.xlsx
+++ b/Testing Manager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\2024-10-ATAA-Forge\scouting-xtreme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F4219-E81A-4772-90C7-9ACB2FD693DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D0104-E534-460B-AB7F-A2539226F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="3" xr2:uid="{02701ECD-E265-41D5-A2A7-3CC6CA32D865}"/>
+    <workbookView xWindow="12877" yWindow="0" windowWidth="13125" windowHeight="15563" activeTab="2" xr2:uid="{02701ECD-E265-41D5-A2A7-3CC6CA32D865}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Runs" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -374,37 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF156082"/>
-          <bgColor rgb="FF156082"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -495,6 +470,30 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF156082"/>
+          <bgColor rgb="FF156082"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -800,8 +799,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128592</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Test Suite Name">
@@ -824,7 +823,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -883,8 +882,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Test Case Name">
@@ -907,7 +906,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1008,7 +1007,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}" name="tbl_TestSuites" displayName="tbl_TestSuites" ref="A1:J6" totalsRowShown="0" headerRowDxfId="1" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}" name="tbl_TestSuites" displayName="tbl_TestSuites" ref="A1:J6" totalsRowShown="0" headerRowDxfId="16" dataCellStyle="Normal">
   <autoFilter ref="A1:J6" xr:uid="{BE361D65-1673-4F44-9EE8-1F2B584CC1AE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{14E89959-557D-4658-8F3A-7444B6EEF92A}" name="Test Suite ID" dataCellStyle="Normal"/>
@@ -1037,34 +1036,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}" name="tbl_TestCases" displayName="tbl_TestCases" ref="A17:M40" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}" name="tbl_TestCases" displayName="tbl_TestCases" ref="A17:M40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="Normal">
   <autoFilter ref="A17:M40" xr:uid="{013E8841-AA34-4C82-B9AA-E95138FF2B02}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{27574F06-5BA9-4E63-97C7-825783688D46}" name="Test Case ID" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B526EB36-9DB5-49C2-8DA1-334D20B647A3}" name="Test Suite ID" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{ED5D7682-7E0B-4088-9CEB-04199327A651}" name="Test Suite Name" dataDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{27574F06-5BA9-4E63-97C7-825783688D46}" name="Test Case ID" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B526EB36-9DB5-49C2-8DA1-334D20B647A3}" name="Test Suite ID" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{ED5D7682-7E0B-4088-9CEB-04199327A651}" name="Test Suite Name" dataDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>_xlfn.XLOOKUP(tbl_TestCases[[#This Row],[Test Suite ID]],tbl_TestSuites[Test Suite ID],tbl_TestSuites[Test Suite Name], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{264D8F34-B394-4503-BE76-AED9935ABFB6}" name="Brief description" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{FF5D68C7-F0C5-43FD-B3C6-0FD89A4C0BF0}" name="Expectation" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{AC820220-D268-4E52-AA4D-B6EB4A405E79}" name="Related steps (Count)" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{264D8F34-B394-4503-BE76-AED9935ABFB6}" name="Brief description" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{FF5D68C7-F0C5-43FD-B3C6-0FD89A4C0BF0}" name="Expectation" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{AC820220-D268-4E52-AA4D-B6EB4A405E79}" name="Related steps (Count)" dataDxfId="8" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIF(tbl_Steps[Test Case ID], tbl_TestCases[[#This Row],[Test Case ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B73A8C2C-FDED-498D-9AE0-78ACB38485F6}" name="Steps passing (Count)" dataDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{B73A8C2C-FDED-498D-9AE0-78ACB38485F6}" name="Steps passing (Count)" dataDxfId="7" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "PASS")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4955DF23-818F-4B58-9ECE-732AC5472191}" name="Steps failing (Count)" dataDxfId="7" dataCellStyle="Normal">
+    <tableColumn id="8" xr3:uid="{4955DF23-818F-4B58-9ECE-732AC5472191}" name="Steps failing (Count)" dataDxfId="6" dataCellStyle="Normal">
       <calculatedColumnFormula>COUNTIFS(tbl_Steps[Test Case ID],tbl_TestCases[[#This Row],[Test Case ID]],tbl_Steps[Grade], "FAIL")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B8A6487D-B1AD-4036-A6F9-8446B575FA71}" name="Steps without grades (Count)" dataDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{B8A6487D-B1AD-4036-A6F9-8446B575FA71}" name="Steps without grades (Count)" dataDxfId="5" dataCellStyle="Normal">
       <calculatedColumnFormula>tbl_TestCases[[#This Row],[Related steps (Count)]]-(tbl_TestCases[[#This Row],[Steps passing (Count)]]+tbl_TestCases[[#This Row],[Steps failing (Count)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AED18D94-50D3-4BF4-A6A3-650067C35BCE}" name="Grade from steps (%)" dataDxfId="5" dataCellStyle="Normal">
+    <tableColumn id="10" xr3:uid="{AED18D94-50D3-4BF4-A6A3-650067C35BCE}" name="Grade from steps (%)" dataDxfId="4" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(tbl_TestCases[[#This Row],[Steps passing (Count)]]/tbl_TestCases[[#This Row],[Related steps (Count)]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{710606B9-4D57-4EFC-A361-E7DB90F278AF}" name="Test Case Outcome" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{250EFB62-2850-48CE-AB17-75B4E454A4E2}" name="Test Case Grade" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{B6ECD6C7-48A9-4711-BB31-B5F8F17049F7}" name="Notes" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{710606B9-4D57-4EFC-A361-E7DB90F278AF}" name="Test Case Outcome" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{250EFB62-2850-48CE-AB17-75B4E454A4E2}" name="Test Case Grade" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{B6ECD6C7-48A9-4711-BB31-B5F8F17049F7}" name="Notes" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,7 +1428,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>45636.761668634259</v>
+        <v>45636.778450347221</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.45">
@@ -1706,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F5C402-97F3-45C7-87D5-D390AFC3D58D}">
   <dimension ref="A17:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2688,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27539A-71A8-46AA-AE48-2B75AF98E22A}">
   <dimension ref="A17:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2727,46 +2726,44 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" t="str">
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" t="str">
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2775,7 +2772,7 @@
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
@@ -2783,6 +2780,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
       <c r="B21">
         <v>4</v>
       </c>
@@ -2790,7 +2790,7 @@
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
@@ -2798,44 +2798,43 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="10" t="str">
+      <c r="C22" t="str">
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" t="str">
         <f>_xlfn.XLOOKUP(tbl_Steps[[#This Row],[Test Case ID]],tbl_TestCases[Test Case ID],tbl_TestCases[Brief description], "")</f>
         <v>Pit data, Use default values</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing Manager.xlsx
+++ b/Testing Manager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\2024-10-ATAA-Forge\scouting-xtreme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D0104-E534-460B-AB7F-A2539226F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE338BBA-9375-499A-980C-48217DEC55A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12877" yWindow="0" windowWidth="13125" windowHeight="15563" activeTab="2" xr2:uid="{02701ECD-E265-41D5-A2A7-3CC6CA32D865}"/>
   </bookViews>
@@ -1428,7 +1428,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>45636.778450347221</v>
+        <v>45636.79013587963</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.45">
@@ -1705,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F5C402-97F3-45C7-87D5-D390AFC3D58D}">
   <dimension ref="A17:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE27539A-71A8-46AA-AE48-2B75AF98E22A}">
   <dimension ref="A17:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
